--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Solverminds_DISTILL\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -566,8 +564,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,7 +735,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -789,7 +787,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -983,21 +981,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
@@ -1039,7 +1037,7 @@
     <col min="39" max="39" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="15.75">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1156,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -1217,7 +1215,7 @@
       <c r="AL2" s="6"/>
       <c r="AM2" s="6"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39">
       <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
         <v>151</v>
@@ -1274,7 +1272,7 @@
       <c r="AL3" s="6"/>
       <c r="AM3" s="6"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -1341,7 +1339,7 @@
       <c r="AL4" s="6"/>
       <c r="AM4" s="6"/>
     </row>
-    <row r="5" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="30">
       <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
         <v>157</v>
@@ -1406,7 +1404,7 @@
       <c r="AL5" s="6"/>
       <c r="AM5" s="6"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -1461,7 +1459,7 @@
       <c r="AL6" s="6"/>
       <c r="AM6" s="6"/>
     </row>
-    <row r="7" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>60</v>
@@ -1514,7 +1512,7 @@
       <c r="AL7" s="6"/>
       <c r="AM7" s="6"/>
     </row>
-    <row r="8" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="30">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
@@ -1577,7 +1575,7 @@
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
     </row>
-    <row r="9" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="30">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
         <v>66</v>
@@ -1638,7 +1636,7 @@
       <c r="AL9" s="6"/>
       <c r="AM9" s="6"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
@@ -1729,7 +1727,7 @@
       <c r="AL10" s="6"/>
       <c r="AM10" s="6"/>
     </row>
-    <row r="11" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="30">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
         <v>70</v>
@@ -1818,7 +1816,7 @@
       <c r="AL11" s="6"/>
       <c r="AM11" s="6"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
@@ -1885,7 +1883,7 @@
       <c r="AL12" s="6"/>
       <c r="AM12" s="6"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
         <v>82</v>
@@ -1950,7 +1948,7 @@
       <c r="AL13" s="6"/>
       <c r="AM13" s="6"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39">
       <c r="A14" s="1" t="s">
         <v>136</v>
       </c>
@@ -1995,7 +1993,7 @@
       <c r="AL14" s="6"/>
       <c r="AM14" s="6"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
         <v>138</v>
@@ -2038,7 +2036,7 @@
       <c r="AL15" s="6"/>
       <c r="AM15" s="6"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39">
       <c r="A16" s="1" t="s">
         <v>146</v>
       </c>
@@ -2083,7 +2081,7 @@
       <c r="AL16" s="6"/>
       <c r="AM16" s="6"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39">
       <c r="A17" s="6"/>
       <c r="B17" s="4" t="s">
         <v>147</v>
@@ -2136,4 +2134,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Solvermind_newframework\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="210">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -159,30 +164,15 @@
     <t>Confirmation</t>
   </si>
   <si>
-    <t>FormTitle</t>
-  </si>
-  <si>
     <t>Automation Test</t>
   </si>
   <si>
-    <t>ShortTitle</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
-    <t>Patient_Details</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Tester</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -387,15 +377,6 @@
     <t>Email_Id</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -495,9 +476,6 @@
     <t>DISTILL, Chennai - 01</t>
   </si>
   <si>
-    <t>Solverminds, Chennai - 01</t>
-  </si>
-  <si>
     <t>New Tester</t>
   </si>
   <si>
@@ -559,13 +537,133 @@
   </si>
   <si>
     <t>muthuram.g@trackdfect.com</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>BOOKING</t>
+  </si>
+  <si>
+    <t>ModuleName</t>
+  </si>
+  <si>
+    <t>AgrParty</t>
+  </si>
+  <si>
+    <t>SVM1483</t>
+  </si>
+  <si>
+    <t>v2atesting</t>
+  </si>
+  <si>
+    <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>AEJEA</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>SGSIN</t>
+  </si>
+  <si>
+    <t>Prabhakaran</t>
+  </si>
+  <si>
+    <t>Service Creation</t>
+  </si>
+  <si>
+    <t>ServiceCode</t>
+  </si>
+  <si>
+    <t>ServiceName</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>NoOfShips</t>
+  </si>
+  <si>
+    <t>ESL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P@ssw0rd</t>
+  </si>
+  <si>
+    <t>PROFORMA</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Proforma Service Creation</t>
+  </si>
+  <si>
+    <t>Time consumed</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ServiceDelete</t>
+  </si>
+  <si>
+    <t>1DE3</t>
+  </si>
+  <si>
+    <t>ServiceCodeColor</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
+    <t>ModuleProforma</t>
+  </si>
+  <si>
+    <t>ProformaSearchCode</t>
+  </si>
+  <si>
+    <t>ProformaCodeColor</t>
+  </si>
+  <si>
+    <t>#ff0000</t>
+  </si>
+  <si>
+    <t>0001PRFSCH011</t>
+  </si>
+  <si>
+    <t>A3B9</t>
+  </si>
+  <si>
+    <t>CargoMovers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AAA</t>
+  </si>
+  <si>
+    <t>ProformaServiceName</t>
+  </si>
+  <si>
+    <t>RemarkText</t>
+  </si>
+  <si>
+    <t>Welcome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,6 +691,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -654,10 +760,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -675,8 +782,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -981,21 +1095,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
@@ -1037,7 +1151,7 @@
     <col min="39" max="39" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15.75">
+    <row r="1" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1156,9 +1270,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>39</v>
@@ -1170,19 +1284,19 @@
         <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1215,31 +1329,31 @@
       <c r="AL2" s="6"/>
       <c r="AM2" s="6"/>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>175</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1272,45 +1386,45 @@
       <c r="AL3" s="6"/>
       <c r="AM3" s="6"/>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1339,43 +1453,43 @@
       <c r="AL4" s="6"/>
       <c r="AM4" s="6"/>
     </row>
-    <row r="5" spans="1:39" ht="30">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="M5" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -1404,27 +1518,27 @@
       <c r="AL5" s="6"/>
       <c r="AM5" s="6"/>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1459,25 +1573,25 @@
       <c r="AL6" s="6"/>
       <c r="AM6" s="6"/>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1512,39 +1626,39 @@
       <c r="AL7" s="6"/>
       <c r="AM7" s="6"/>
     </row>
-    <row r="8" spans="1:39" ht="30">
+    <row r="8" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1575,37 +1689,37 @@
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
     </row>
-    <row r="9" spans="1:39" ht="30">
+    <row r="9" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -1636,81 +1750,81 @@
       <c r="AL9" s="6"/>
       <c r="AM9" s="6"/>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="H10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="M10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="U10" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="V10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -1727,79 +1841,79 @@
       <c r="AL10" s="6"/>
       <c r="AM10" s="6"/>
     </row>
-    <row r="11" spans="1:39" ht="30">
+    <row r="11" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="P11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="R11" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -1816,45 +1930,45 @@
       <c r="AL11" s="6"/>
       <c r="AM11" s="6"/>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1883,43 +1997,43 @@
       <c r="AL12" s="6"/>
       <c r="AM12" s="6"/>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -1948,12 +2062,12 @@
       <c r="AL13" s="6"/>
       <c r="AM13" s="6"/>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1993,10 +2107,10 @@
       <c r="AL14" s="6"/>
       <c r="AM14" s="6"/>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -2036,36 +2150,32 @@
       <c r="AL15" s="6"/>
       <c r="AM15" s="6"/>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
@@ -2081,34 +2191,32 @@
       <c r="AL16" s="6"/>
       <c r="AM16" s="6"/>
     </row>
-    <row r="17" spans="1:39">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
@@ -2124,6 +2232,94 @@
       <c r="AL17" s="6"/>
       <c r="AM17" s="6"/>
     </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
@@ -2137,37 +2333,455 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AX5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.5703125" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+    </row>
+    <row r="5" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="Test@123"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_framework\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15350" windowHeight="4550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,8 +18,8 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="247">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -559,13 +564,217 @@
   </si>
   <si>
     <t>muthuram.g@trackdfect.com</t>
+  </si>
+  <si>
+    <t>EMS_Module</t>
+  </si>
+  <si>
+    <t>Userid</t>
+  </si>
+  <si>
+    <t>Abinaya</t>
+  </si>
+  <si>
+    <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>Search_module</t>
+  </si>
+  <si>
+    <t>EMS Contract Registration</t>
+  </si>
+  <si>
+    <t>PassWord</t>
+  </si>
+  <si>
+    <t>ContractField</t>
+  </si>
+  <si>
+    <t>Contract_Type</t>
+  </si>
+  <si>
+    <t>S-SUPPLIERCONTRACT</t>
+  </si>
+  <si>
+    <t>CNC</t>
+  </si>
+  <si>
+    <t>Lessor_Code</t>
+  </si>
+  <si>
+    <t>Lessor_CodeValue</t>
+  </si>
+  <si>
+    <t>THE CHINA NAVIGATION CO. PTE LTD.</t>
+  </si>
+  <si>
+    <t>Lessee_Code</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>SVM SHIPPING</t>
+  </si>
+  <si>
+    <t>Lessee_CodeValue</t>
+  </si>
+  <si>
+    <t>Size_Type</t>
+  </si>
+  <si>
+    <t>SizeandTypeValue</t>
+  </si>
+  <si>
+    <t>20DC</t>
+  </si>
+  <si>
+    <t>N - No banding</t>
+  </si>
+  <si>
+    <t>leasetype_Value</t>
+  </si>
+  <si>
+    <t>Perdiem_Value</t>
+  </si>
+  <si>
+    <t>AA11BB22</t>
+  </si>
+  <si>
+    <t>All Region</t>
+  </si>
+  <si>
+    <t>Locationhier_Value</t>
+  </si>
+  <si>
+    <t>Location_Value</t>
+  </si>
+  <si>
+    <t>SGSIN</t>
+  </si>
+  <si>
+    <t>Straight Line</t>
+  </si>
+  <si>
+    <t>Depreciation_Type</t>
+  </si>
+  <si>
+    <t>contract_register_successfully</t>
+  </si>
+  <si>
+    <t>EMS Contract Registration saved</t>
+  </si>
+  <si>
+    <t>10RF</t>
+  </si>
+  <si>
+    <t>SizeandTypeValue1</t>
+  </si>
+  <si>
+    <t>EMS Contract Registration Updated</t>
+  </si>
+  <si>
+    <t>Contract_Updatedpopup</t>
+  </si>
+  <si>
+    <t>Search_modulename</t>
+  </si>
+  <si>
+    <t>VSS_Module</t>
+  </si>
+  <si>
+    <t>Proforma Service Creation</t>
+  </si>
+  <si>
+    <t>Servicecode_Name</t>
+  </si>
+  <si>
+    <t>ABI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Do you want to create a new Proforma Service Creation?</t>
+  </si>
+  <si>
+    <t>NewService_Creation</t>
+  </si>
+  <si>
+    <t>Proforma Service Creation Saved.</t>
+  </si>
+  <si>
+    <t>Savepopup</t>
+  </si>
+  <si>
+    <t>VSS_Module2</t>
+  </si>
+  <si>
+    <t>Global_Searchvalue</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>Status_DropdownValue</t>
+  </si>
+  <si>
+    <t>Proforma Bound and Number of Service Bound should be same</t>
+  </si>
+  <si>
+    <t>Bound_Value</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Change_BoundValue</t>
+  </si>
+  <si>
+    <t>Proforma Service Creation Updated.</t>
+  </si>
+  <si>
+    <t>Proforma_Updated</t>
+  </si>
+  <si>
+    <t>Portvalue</t>
+  </si>
+  <si>
+    <t>AB001</t>
+  </si>
+  <si>
+    <t>TEST101</t>
+  </si>
+  <si>
+    <t>Terminalvalue</t>
+  </si>
+  <si>
+    <t>AB009</t>
+  </si>
+  <si>
+    <t>Portvalue1</t>
+  </si>
+  <si>
+    <t>Yellow_color</t>
+  </si>
+  <si>
+    <t>Remark_name</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Proforma_Date</t>
+  </si>
+  <si>
+    <t>#9ACD32</t>
+  </si>
+  <si>
+    <t>Green_color</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,8 +806,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -629,6 +846,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -654,10 +877,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -675,8 +899,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -735,7 +965,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -787,7 +1017,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -981,63 +1211,63 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="37.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.26953125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.54296875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37.1796875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.81640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.453125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.7265625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.1796875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.54296875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.1796875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.26953125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.54296875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.7265625" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="16" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.7265625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16.7265625" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="18" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.54296875" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="16.453125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.81640625" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="19.26953125" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="14.26953125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="14.81640625" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18.26953125" customWidth="1" collapsed="1"/>
     <col min="29" max="29" width="15" customWidth="1" collapsed="1"/>
     <col min="30" max="30" width="17" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="35" max="36" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.81640625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="18.453125" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="18.1796875" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="17.26953125" customWidth="1" collapsed="1"/>
+    <col min="35" max="36" width="16.453125" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="14.81640625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="14.7265625" customWidth="1" collapsed="1"/>
     <col min="39" max="39" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15.75">
+    <row r="1" spans="1:39" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1386,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -1215,64 +1445,33 @@
       <c r="AL2" s="6"/>
       <c r="AM2" s="6"/>
     </row>
-    <row r="3" spans="1:39">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -1339,7 +1538,7 @@
       <c r="AL4" s="6"/>
       <c r="AM4" s="6"/>
     </row>
-    <row r="5" spans="1:39" ht="30">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
         <v>157</v>
@@ -1404,7 +1603,7 @@
       <c r="AL5" s="6"/>
       <c r="AM5" s="6"/>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -1459,7 +1658,7 @@
       <c r="AL6" s="6"/>
       <c r="AM6" s="6"/>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>60</v>
@@ -1512,7 +1711,7 @@
       <c r="AL7" s="6"/>
       <c r="AM7" s="6"/>
     </row>
-    <row r="8" spans="1:39" ht="30">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
@@ -1575,7 +1774,7 @@
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
     </row>
-    <row r="9" spans="1:39" ht="30">
+    <row r="9" spans="1:39" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
         <v>66</v>
@@ -1636,7 +1835,7 @@
       <c r="AL9" s="6"/>
       <c r="AM9" s="6"/>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
@@ -1727,7 +1926,7 @@
       <c r="AL10" s="6"/>
       <c r="AM10" s="6"/>
     </row>
-    <row r="11" spans="1:39" ht="30">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
         <v>70</v>
@@ -1816,7 +2015,7 @@
       <c r="AL11" s="6"/>
       <c r="AM11" s="6"/>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
@@ -1883,7 +2082,7 @@
       <c r="AL12" s="6"/>
       <c r="AM12" s="6"/>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
         <v>82</v>
@@ -1948,7 +2147,7 @@
       <c r="AL13" s="6"/>
       <c r="AM13" s="6"/>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>136</v>
       </c>
@@ -1993,7 +2192,7 @@
       <c r="AL14" s="6"/>
       <c r="AM14" s="6"/>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
         <v>138</v>
@@ -2036,7 +2235,7 @@
       <c r="AL15" s="6"/>
       <c r="AM15" s="6"/>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>146</v>
       </c>
@@ -2081,7 +2280,7 @@
       <c r="AL16" s="6"/>
       <c r="AM16" s="6"/>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="4" t="s">
         <v>147</v>
@@ -2124,6 +2323,15 @@
       <c r="AL17" s="6"/>
       <c r="AM17" s="6"/>
     </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="C19" s="8"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
@@ -2137,36 +2345,644 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="35.453125" customWidth="1"/>
+    <col min="6" max="6" width="21.26953125" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="8" max="8" width="31.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" customWidth="1"/>
+    <col min="10" max="10" width="32.7265625" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+    </row>
+    <row r="3" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+    </row>
+    <row r="6" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+    </row>
+    <row r="7" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="K7" s="11">
+        <v>45296</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+    </row>
+    <row r="9" spans="1:39" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="E12" s="10"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D20" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitPush\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86D5E7E-D053-4EA0-BC67-754D1828B017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,8 +19,8 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -147,425 +153,59 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Test@123</t>
-  </si>
-  <si>
-    <t>DISTILL</t>
-  </si>
-  <si>
-    <t>confirm</t>
-  </si>
-  <si>
-    <t>Confirmation</t>
-  </si>
-  <si>
-    <t>FormTitle</t>
-  </si>
-  <si>
-    <t>Automation Test</t>
-  </si>
-  <si>
-    <t>ShortTitle</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Patient_Details</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
-    <t>Patient_Status</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>User_ID</t>
-  </si>
-  <si>
-    <t>Site_ID</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>EmailID</t>
-  </si>
-  <si>
-    <t>Form_Status</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>FormStatus</t>
-  </si>
-  <si>
-    <t>Form_Field</t>
-  </si>
-  <si>
-    <t>YOB</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-  </si>
-  <si>
-    <t>28 / Mar / 1998</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Doctor Checkup</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Symptoms</t>
-  </si>
-  <si>
-    <t>Cough</t>
-  </si>
-  <si>
-    <t>Institute_Name</t>
-  </si>
-  <si>
-    <t>TrackDfect</t>
-  </si>
-  <si>
-    <t>First_Name</t>
-  </si>
-  <si>
-    <t>Last_Name</t>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Initial value set</t>
-  </si>
-  <si>
-    <t>000015</t>
-  </si>
-  <si>
-    <t>StudyID</t>
-  </si>
-  <si>
-    <t>Visit_Num</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Visit_Name</t>
-  </si>
-  <si>
-    <t>Patient milestone</t>
-  </si>
-  <si>
-    <t>Visit_ID</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Form_title</t>
-  </si>
-  <si>
-    <t>Field1</t>
-  </si>
-  <si>
-    <t>Patient randomisation</t>
-  </si>
-  <si>
-    <t>Field2</t>
-  </si>
-  <si>
-    <t>Field3</t>
-  </si>
-  <si>
-    <t>Field4</t>
-  </si>
-  <si>
-    <t>Field5</t>
-  </si>
-  <si>
-    <t>Field6</t>
-  </si>
-  <si>
-    <t>Field7</t>
-  </si>
-  <si>
-    <t>Field8</t>
-  </si>
-  <si>
-    <t>Field9</t>
-  </si>
-  <si>
-    <t>Field10</t>
-  </si>
-  <si>
-    <t>Field11</t>
-  </si>
-  <si>
-    <t>Field12</t>
-  </si>
-  <si>
-    <t>Field13</t>
-  </si>
-  <si>
-    <t>Year of Birth</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>Documents</t>
-  </si>
-  <si>
-    <t>Email Id</t>
-  </si>
-  <si>
-    <t>Form_Field1</t>
-  </si>
-  <si>
-    <t>Patient created</t>
-  </si>
-  <si>
-    <t>Form_Activity</t>
-  </si>
-  <si>
-    <t>Form created</t>
-  </si>
-  <si>
-    <t>Actionsource</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Email_Id</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>Fever</t>
-  </si>
-  <si>
-    <t>Gender2</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Gender3</t>
-  </si>
-  <si>
-    <t>Symptoms2</t>
-  </si>
-  <si>
-    <t>Result Analysis</t>
-  </si>
-  <si>
-    <t>Regular Checkup</t>
-  </si>
-  <si>
-    <t>Purpose2</t>
-  </si>
-  <si>
-    <t>Purpose3</t>
-  </si>
-  <si>
-    <t>Exported_Data</t>
-  </si>
-  <si>
-    <t>Active status</t>
-  </si>
-  <si>
-    <t>Form active</t>
-  </si>
-  <si>
-    <t>Deleted_Activity</t>
-  </si>
-  <si>
-    <t>Form deleted</t>
-  </si>
-  <si>
-    <t>Delete_Status</t>
-  </si>
-  <si>
-    <t>Deleted</t>
-  </si>
-  <si>
-    <t>Age2</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Activity2</t>
-  </si>
-  <si>
-    <t>SDV</t>
-  </si>
-  <si>
-    <t>Verified</t>
-  </si>
-  <si>
-    <t>Activity3</t>
-  </si>
-  <si>
-    <t>Value updated</t>
-  </si>
-  <si>
-    <t>Form updated</t>
-  </si>
-  <si>
-    <t>11854</t>
-  </si>
-  <si>
-    <t>tddistillautomation@gmail.com</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Distill</t>
-  </si>
-  <si>
-    <t>Address1</t>
-  </si>
-  <si>
-    <t>DISTILL, Chennai - 01</t>
-  </si>
-  <si>
-    <t>Solverminds, Chennai - 01</t>
-  </si>
-  <si>
-    <t>New Tester</t>
-  </si>
-  <si>
-    <t>Name1</t>
-  </si>
-  <si>
-    <t>Age1</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Weight1</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>EmailID1</t>
-  </si>
-  <si>
-    <t>tester@gmail.com</t>
-  </si>
-  <si>
-    <t>Gender1</t>
-  </si>
-  <si>
-    <t>Signed</t>
-  </si>
-  <si>
-    <t>Sign_status</t>
-  </si>
-  <si>
-    <t>Signed_status</t>
-  </si>
-  <si>
-    <t>Unsigned_status</t>
-  </si>
-  <si>
-    <t>Successfully Signed</t>
-  </si>
-  <si>
-    <t>Successfully Unsigned</t>
-  </si>
-  <si>
-    <t>Lock_status</t>
-  </si>
-  <si>
-    <t>Unlock_status</t>
-  </si>
-  <si>
-    <t>Successfully locked</t>
-  </si>
-  <si>
-    <t>Successfully Unlocked</t>
-  </si>
-  <si>
-    <t>Recovery_Email</t>
-  </si>
-  <si>
-    <t>muthuram.g@trackdfect.com</t>
+    <t>SOLVERMINDS</t>
+  </si>
+  <si>
+    <t>Module_Search</t>
+  </si>
+  <si>
+    <t>Service_Code</t>
+  </si>
+  <si>
+    <t>Service_Name</t>
+  </si>
+  <si>
+    <t>Ashok</t>
+  </si>
+  <si>
+    <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>Service Creation</t>
+  </si>
+  <si>
+    <t>TD22052024</t>
+  </si>
+  <si>
+    <t>Start_Date1</t>
+  </si>
+  <si>
+    <t>End_Date1</t>
+  </si>
+  <si>
+    <t>RT54</t>
+  </si>
+  <si>
+    <t>Start_Date2</t>
+  </si>
+  <si>
+    <t>End_Date2</t>
+  </si>
+  <si>
+    <t>05/31/2024 00:00</t>
+  </si>
+  <si>
+    <t>05/25/2024 00:00</t>
+  </si>
+  <si>
+    <t>05/29/2024 00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,7 +308,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -735,7 +375,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -787,7 +427,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -981,21 +621,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
@@ -1005,7 +645,7 @@
     <col min="6" max="6" width="37.140625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="27.85546875" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="16.5703125" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1037,7 +677,7 @@
     <col min="39" max="39" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15.75">
+    <row r="1" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1156,9 +796,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>39</v>
@@ -1167,24 +807,26 @@
         <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1215,33 +857,35 @@
       <c r="AL2" s="6"/>
       <c r="AM2" s="6"/>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J3" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -1272,46 +916,20 @@
       <c r="AL3" s="6"/>
       <c r="AM3" s="6"/>
     </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>166</v>
-      </c>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1339,44 +957,20 @@
       <c r="AL4" s="6"/>
       <c r="AM4" s="6"/>
     </row>
-    <row r="5" spans="1:39" ht="30">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="4"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -1404,28 +998,14 @@
       <c r="AL5" s="6"/>
       <c r="AM5" s="6"/>
     </row>
-    <row r="6" spans="1:39">
-      <c r="A6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>177</v>
-      </c>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1459,26 +1039,14 @@
       <c r="AL6" s="6"/>
       <c r="AM6" s="6"/>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>178</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1512,40 +1080,18 @@
       <c r="AL7" s="6"/>
       <c r="AM7" s="6"/>
     </row>
-    <row r="8" spans="1:39" ht="30">
-      <c r="A8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>174</v>
-      </c>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1575,38 +1121,18 @@
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
     </row>
-    <row r="9" spans="1:39" ht="30">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>176</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -1636,82 +1162,32 @@
       <c r="AL9" s="6"/>
       <c r="AM9" s="6"/>
     </row>
-    <row r="10" spans="1:39">
-      <c r="A10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>135</v>
-      </c>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
@@ -1727,80 +1203,32 @@
       <c r="AL10" s="6"/>
       <c r="AM10" s="6"/>
     </row>
-    <row r="11" spans="1:39" ht="30">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
@@ -1816,46 +1244,20 @@
       <c r="AL11" s="6"/>
       <c r="AM11" s="6"/>
     </row>
-    <row r="12" spans="1:39">
-      <c r="A12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>148</v>
-      </c>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1883,44 +1285,20 @@
       <c r="AL12" s="6"/>
       <c r="AM12" s="6"/>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -1948,13 +1326,9 @@
       <c r="AL13" s="6"/>
       <c r="AM13" s="6"/>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>137</v>
-      </c>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1993,11 +1367,9 @@
       <c r="AL14" s="6"/>
       <c r="AM14" s="6"/>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -2036,13 +1408,9 @@
       <c r="AL15" s="6"/>
       <c r="AM15" s="6"/>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2081,11 +1449,9 @@
       <c r="AL16" s="6"/>
       <c r="AM16" s="6"/>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
-        <v>147</v>
-      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -2125,48 +1491,42 @@
       <c r="AM17" s="6"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="F5" r:id="rId2"/>
-    <hyperlink ref="F7" r:id="rId3"/>
-    <hyperlink ref="G7" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC72F6F-08EB-42CA-BBA0-88B4511DE8A6}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C4B2BE-654C-4C14-BE24-E2992AA70141}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A8631F-E8DE-4CC8-86EB-82373AB9C32F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Framework\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,8 +18,8 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="268">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -559,13 +564,280 @@
   </si>
   <si>
     <t>muthuram.g@trackdfect.com</t>
+  </si>
+  <si>
+    <t>Search_input</t>
+  </si>
+  <si>
+    <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>7896g8</t>
+  </si>
+  <si>
+    <t>SOLVERMINE_BOOKING</t>
+  </si>
+  <si>
+    <t>Orgin</t>
+  </si>
+  <si>
+    <t>AEJEA</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>SGSIN</t>
+  </si>
+  <si>
+    <t>AGR_Party</t>
+  </si>
+  <si>
+    <t>SVM1483</t>
+  </si>
+  <si>
+    <t>OrginExp</t>
+  </si>
+  <si>
+    <t>(AEJEA) JEBEL ALI, UNITED ARAB EMIRATES TEST</t>
+  </si>
+  <si>
+    <t>DeliveryExp</t>
+  </si>
+  <si>
+    <t>(SGSIN) SINGAPORE</t>
+  </si>
+  <si>
+    <t>AGR</t>
+  </si>
+  <si>
+    <t>AGRExp</t>
+  </si>
+  <si>
+    <t>(SVM1483) MANICK.G</t>
+  </si>
+  <si>
+    <t>CSK_NAME</t>
+  </si>
+  <si>
+    <t>CSK</t>
+  </si>
+  <si>
+    <t>Arunthathi</t>
+  </si>
+  <si>
+    <t>Equipment_number</t>
+  </si>
+  <si>
+    <t>BQCM0000312</t>
+  </si>
+  <si>
+    <t>Cargoweight</t>
+  </si>
+  <si>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>dv20</t>
+  </si>
+  <si>
+    <t>equipment profile</t>
+  </si>
+  <si>
+    <t>Searchinput</t>
+  </si>
+  <si>
+    <t>NINPUT</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Equipmentinputsearch</t>
+  </si>
+  <si>
+    <t>Equipmentinputsearch1</t>
+  </si>
+  <si>
+    <t>Equipmentinputsearchedit</t>
+  </si>
+  <si>
+    <t>AE00910200</t>
+  </si>
+  <si>
+    <t>Canequipnum</t>
+  </si>
+  <si>
+    <t>Equipment_Details</t>
+  </si>
+  <si>
+    <t>Greencolour</t>
+  </si>
+  <si>
+    <t>Yelloecolour</t>
+  </si>
+  <si>
+    <t>#FFFF00</t>
+  </si>
+  <si>
+    <t>#90EE90</t>
+  </si>
+  <si>
+    <t>ANBU3201170</t>
+  </si>
+  <si>
+    <t>ANBU3201144</t>
+  </si>
+  <si>
+    <t>ANBU3201139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proforma Service Creation </t>
+  </si>
+  <si>
+    <t>ABC1</t>
+  </si>
+  <si>
+    <t>ServiceCode</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>PortCode</t>
+  </si>
+  <si>
+    <t>ABC01</t>
+  </si>
+  <si>
+    <t>PortCode1</t>
+  </si>
+  <si>
+    <t>PortCode2</t>
+  </si>
+  <si>
+    <t>PortCode3</t>
+  </si>
+  <si>
+    <t>PortCode4</t>
+  </si>
+  <si>
+    <t>ABCDE</t>
+  </si>
+  <si>
+    <t>AEAMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHENN </t>
+  </si>
+  <si>
+    <t>PortCode5</t>
+  </si>
+  <si>
+    <t>AB001</t>
+  </si>
+  <si>
+    <t>BufferTime</t>
+  </si>
+  <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>-7.0</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>CNDAL</t>
+  </si>
+  <si>
+    <t>NewAdd</t>
+  </si>
+  <si>
+    <t>ProformaCode</t>
+  </si>
+  <si>
+    <t>0001PRFSCH001</t>
+  </si>
+  <si>
+    <t>ValidationForDeployed</t>
+  </si>
+  <si>
+    <t>ProformaCodeDraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Are you sure you want to Delete the Proforma?</t>
+  </si>
+  <si>
+    <t>ValidationForDraft</t>
+  </si>
+  <si>
+    <t>This Proforma Code is already used in Long Term Schedule. So, you cannot change this Proforma. Use Save As option.</t>
+  </si>
+  <si>
+    <t>ProformaCodeConform</t>
+  </si>
+  <si>
+    <t>ServiceCodeImport</t>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>ALP</t>
+  </si>
+  <si>
+    <t>ServiceCODE1</t>
+  </si>
+  <si>
+    <t>ROCK</t>
+  </si>
+  <si>
+    <t>1PRFSCH002</t>
+  </si>
+  <si>
+    <t>23VDPRFSC1710</t>
+  </si>
+  <si>
+    <t>Servicenameinput</t>
+  </si>
+  <si>
+    <t>VISHNU001</t>
+  </si>
+  <si>
+    <t>Datas_Details</t>
+  </si>
+  <si>
+    <t>PortCodeFilter</t>
+  </si>
+  <si>
+    <t>NLAER</t>
+  </si>
+  <si>
+    <t>CNNBO</t>
+  </si>
+  <si>
+    <t>Portcodesearch</t>
+  </si>
+  <si>
+    <t>CNFAN</t>
+  </si>
+  <si>
+    <t>Portcodesearch1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,6 +865,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -630,7 +910,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -653,11 +933,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -675,8 +967,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -735,7 +1035,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -787,7 +1087,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -981,21 +1281,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection sqref="A1:Y17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
@@ -1037,7 +1337,7 @@
     <col min="39" max="39" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15.75">
+    <row r="1" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1456,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -1215,7 +1515,7 @@
       <c r="AL2" s="6"/>
       <c r="AM2" s="6"/>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
         <v>151</v>
@@ -1272,7 +1572,7 @@
       <c r="AL3" s="6"/>
       <c r="AM3" s="6"/>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -1339,7 +1639,7 @@
       <c r="AL4" s="6"/>
       <c r="AM4" s="6"/>
     </row>
-    <row r="5" spans="1:39" ht="30">
+    <row r="5" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
         <v>157</v>
@@ -1404,7 +1704,7 @@
       <c r="AL5" s="6"/>
       <c r="AM5" s="6"/>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -1459,7 +1759,7 @@
       <c r="AL6" s="6"/>
       <c r="AM6" s="6"/>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>60</v>
@@ -1512,7 +1812,7 @@
       <c r="AL7" s="6"/>
       <c r="AM7" s="6"/>
     </row>
-    <row r="8" spans="1:39" ht="30">
+    <row r="8" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
@@ -1575,7 +1875,7 @@
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
     </row>
-    <row r="9" spans="1:39" ht="30">
+    <row r="9" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
         <v>66</v>
@@ -1636,7 +1936,7 @@
       <c r="AL9" s="6"/>
       <c r="AM9" s="6"/>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
@@ -1727,7 +2027,7 @@
       <c r="AL10" s="6"/>
       <c r="AM10" s="6"/>
     </row>
-    <row r="11" spans="1:39" ht="30">
+    <row r="11" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
         <v>70</v>
@@ -1816,7 +2116,7 @@
       <c r="AL11" s="6"/>
       <c r="AM11" s="6"/>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
@@ -1883,7 +2183,7 @@
       <c r="AL12" s="6"/>
       <c r="AM12" s="6"/>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
         <v>82</v>
@@ -1948,7 +2248,7 @@
       <c r="AL13" s="6"/>
       <c r="AM13" s="6"/>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>136</v>
       </c>
@@ -1993,7 +2293,7 @@
       <c r="AL14" s="6"/>
       <c r="AM14" s="6"/>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
         <v>138</v>
@@ -2036,7 +2336,7 @@
       <c r="AL15" s="6"/>
       <c r="AM15" s="6"/>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>146</v>
       </c>
@@ -2081,7 +2381,7 @@
       <c r="AL16" s="6"/>
       <c r="AM16" s="6"/>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="4" t="s">
         <v>147</v>
@@ -2137,36 +2437,801 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="17" max="17" width="27" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" customWidth="1"/>
+    <col min="20" max="20" width="23.7109375" customWidth="1"/>
+    <col min="21" max="21" width="21.5703125" customWidth="1"/>
+    <col min="25" max="25" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="4">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1998</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="U3" s="6">
+        <v>3000</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="W5" s="6">
+        <v>20</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_framework\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15350" windowHeight="4550" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Service_creation" sheetId="1" r:id="rId1"/>
+    <sheet name="Performa Creation" sheetId="2" r:id="rId2"/>
+    <sheet name="LongTermCreation" sheetId="3" r:id="rId3"/>
+    <sheet name="Costal_Schedule " sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="226">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -152,12 +147,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Test@123</t>
-  </si>
-  <si>
-    <t>DISTILL</t>
-  </si>
-  <si>
     <t>confirm</t>
   </si>
   <si>
@@ -176,222 +165,6 @@
     <t>Form</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Patient_Details</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
-    <t>Patient_Status</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>User_ID</t>
-  </si>
-  <si>
-    <t>Site_ID</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>EmailID</t>
-  </si>
-  <si>
-    <t>Form_Status</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>FormStatus</t>
-  </si>
-  <si>
-    <t>Form_Field</t>
-  </si>
-  <si>
-    <t>YOB</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-  </si>
-  <si>
-    <t>28 / Mar / 1998</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Doctor Checkup</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Symptoms</t>
-  </si>
-  <si>
-    <t>Cough</t>
-  </si>
-  <si>
-    <t>Institute_Name</t>
-  </si>
-  <si>
-    <t>TrackDfect</t>
-  </si>
-  <si>
-    <t>First_Name</t>
-  </si>
-  <si>
-    <t>Last_Name</t>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Initial value set</t>
-  </si>
-  <si>
-    <t>000015</t>
-  </si>
-  <si>
-    <t>StudyID</t>
-  </si>
-  <si>
-    <t>Visit_Num</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Visit_Name</t>
-  </si>
-  <si>
-    <t>Patient milestone</t>
-  </si>
-  <si>
-    <t>Visit_ID</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Form_title</t>
-  </si>
-  <si>
-    <t>Field1</t>
-  </si>
-  <si>
-    <t>Patient randomisation</t>
-  </si>
-  <si>
-    <t>Field2</t>
-  </si>
-  <si>
-    <t>Field3</t>
-  </si>
-  <si>
-    <t>Field4</t>
-  </si>
-  <si>
-    <t>Field5</t>
-  </si>
-  <si>
-    <t>Field6</t>
-  </si>
-  <si>
-    <t>Field7</t>
-  </si>
-  <si>
-    <t>Field8</t>
-  </si>
-  <si>
-    <t>Field9</t>
-  </si>
-  <si>
-    <t>Field10</t>
-  </si>
-  <si>
-    <t>Field11</t>
-  </si>
-  <si>
-    <t>Field12</t>
-  </si>
-  <si>
-    <t>Field13</t>
-  </si>
-  <si>
-    <t>Year of Birth</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>Documents</t>
-  </si>
-  <si>
-    <t>Email Id</t>
-  </si>
-  <si>
-    <t>Form_Field1</t>
-  </si>
-  <si>
-    <t>Patient created</t>
-  </si>
-  <si>
-    <t>Form_Activity</t>
-  </si>
-  <si>
-    <t>Form created</t>
-  </si>
-  <si>
-    <t>Actionsource</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Email_Id</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -404,166 +177,271 @@
     <t>Year</t>
   </si>
   <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>Fever</t>
-  </si>
-  <si>
-    <t>Gender2</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Gender3</t>
-  </si>
-  <si>
-    <t>Symptoms2</t>
-  </si>
-  <si>
-    <t>Result Analysis</t>
-  </si>
-  <si>
-    <t>Regular Checkup</t>
-  </si>
-  <si>
-    <t>Purpose2</t>
-  </si>
-  <si>
-    <t>Purpose3</t>
-  </si>
-  <si>
-    <t>Exported_Data</t>
-  </si>
-  <si>
-    <t>Active status</t>
-  </si>
-  <si>
-    <t>Form active</t>
-  </si>
-  <si>
-    <t>Deleted_Activity</t>
-  </si>
-  <si>
-    <t>Form deleted</t>
-  </si>
-  <si>
-    <t>Delete_Status</t>
-  </si>
-  <si>
-    <t>Deleted</t>
-  </si>
-  <si>
-    <t>Age2</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Activity2</t>
-  </si>
-  <si>
-    <t>SDV</t>
-  </si>
-  <si>
-    <t>Verified</t>
-  </si>
-  <si>
-    <t>Activity3</t>
-  </si>
-  <si>
-    <t>Value updated</t>
-  </si>
-  <si>
-    <t>Form updated</t>
-  </si>
-  <si>
-    <t>11854</t>
-  </si>
-  <si>
-    <t>tddistillautomation@gmail.com</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Distill</t>
-  </si>
-  <si>
-    <t>Address1</t>
-  </si>
-  <si>
-    <t>DISTILL, Chennai - 01</t>
-  </si>
-  <si>
-    <t>Solverminds, Chennai - 01</t>
-  </si>
-  <si>
-    <t>New Tester</t>
-  </si>
-  <si>
-    <t>Name1</t>
-  </si>
-  <si>
-    <t>Age1</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Weight1</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>EmailID1</t>
-  </si>
-  <si>
-    <t>tester@gmail.com</t>
-  </si>
-  <si>
-    <t>Gender1</t>
-  </si>
-  <si>
-    <t>Signed</t>
-  </si>
-  <si>
-    <t>Sign_status</t>
-  </si>
-  <si>
-    <t>Signed_status</t>
-  </si>
-  <si>
-    <t>Unsigned_status</t>
-  </si>
-  <si>
-    <t>Successfully Signed</t>
-  </si>
-  <si>
-    <t>Successfully Unsigned</t>
-  </si>
-  <si>
-    <t>Lock_status</t>
-  </si>
-  <si>
-    <t>Unlock_status</t>
-  </si>
-  <si>
-    <t>Successfully locked</t>
-  </si>
-  <si>
-    <t>Successfully Unlocked</t>
-  </si>
-  <si>
-    <t>Recovery_Email</t>
-  </si>
-  <si>
-    <t>muthuram.g@trackdfect.com</t>
+    <t>Search_input</t>
+  </si>
+  <si>
+    <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>7896g8</t>
+  </si>
+  <si>
+    <t>SOLVERMINE_BOOKING</t>
+  </si>
+  <si>
+    <t>Orgin</t>
+  </si>
+  <si>
+    <t>AEJEA</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>SGSIN</t>
+  </si>
+  <si>
+    <t>AGR_Party</t>
+  </si>
+  <si>
+    <t>SVM1483</t>
+  </si>
+  <si>
+    <t>OrginExp</t>
+  </si>
+  <si>
+    <t>(AEJEA) JEBEL ALI, UNITED ARAB EMIRATES TEST</t>
+  </si>
+  <si>
+    <t>DeliveryExp</t>
+  </si>
+  <si>
+    <t>(SGSIN) SINGAPORE</t>
+  </si>
+  <si>
+    <t>AGR</t>
+  </si>
+  <si>
+    <t>AGRExp</t>
+  </si>
+  <si>
+    <t>(SVM1483) MANICK.G</t>
+  </si>
+  <si>
+    <t>CSK_NAME</t>
+  </si>
+  <si>
+    <t>CSK</t>
+  </si>
+  <si>
+    <t>Arunthathi</t>
+  </si>
+  <si>
+    <t>Equipment_number</t>
+  </si>
+  <si>
+    <t>BQCM0000312</t>
+  </si>
+  <si>
+    <t>Cargoweight</t>
+  </si>
+  <si>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>dv20</t>
+  </si>
+  <si>
+    <t>equipment profile</t>
+  </si>
+  <si>
+    <t>Searchinput</t>
+  </si>
+  <si>
+    <t>NINPUT</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Equipmentinputsearch</t>
+  </si>
+  <si>
+    <t>Equipmentinputsearch1</t>
+  </si>
+  <si>
+    <t>Equipmentinputsearchedit</t>
+  </si>
+  <si>
+    <t>AE00910200</t>
+  </si>
+  <si>
+    <t>Canequipnum</t>
+  </si>
+  <si>
+    <t>Equipment_Details</t>
+  </si>
+  <si>
+    <t>Greencolour</t>
+  </si>
+  <si>
+    <t>Yelloecolour</t>
+  </si>
+  <si>
+    <t>#FFFF00</t>
+  </si>
+  <si>
+    <t>#90EE90</t>
+  </si>
+  <si>
+    <t>ANBU3201170</t>
+  </si>
+  <si>
+    <t>ANBU3201144</t>
+  </si>
+  <si>
+    <t>ANBU3201139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proforma Service Creation </t>
+  </si>
+  <si>
+    <t>ABC1</t>
+  </si>
+  <si>
+    <t>ServiceCode</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>PortCode</t>
+  </si>
+  <si>
+    <t>ABC01</t>
+  </si>
+  <si>
+    <t>PortCode1</t>
+  </si>
+  <si>
+    <t>PortCode2</t>
+  </si>
+  <si>
+    <t>PortCode3</t>
+  </si>
+  <si>
+    <t>PortCode4</t>
+  </si>
+  <si>
+    <t>ABCDE</t>
+  </si>
+  <si>
+    <t>AEAMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHENN </t>
+  </si>
+  <si>
+    <t>PortCode5</t>
+  </si>
+  <si>
+    <t>AB001</t>
+  </si>
+  <si>
+    <t>BufferTime</t>
+  </si>
+  <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>-7.0</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>CNDAL</t>
+  </si>
+  <si>
+    <t>NewAdd</t>
+  </si>
+  <si>
+    <t>ProformaCode</t>
+  </si>
+  <si>
+    <t>0001PRFSCH001</t>
+  </si>
+  <si>
+    <t>ValidationForDeployed</t>
+  </si>
+  <si>
+    <t>ProformaCodeDraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Are you sure you want to Delete the Proforma?</t>
+  </si>
+  <si>
+    <t>ValidationForDraft</t>
+  </si>
+  <si>
+    <t>This Proforma Code is already used in Long Term Schedule. So, you cannot change this Proforma. Use Save As option.</t>
+  </si>
+  <si>
+    <t>ProformaCodeConform</t>
+  </si>
+  <si>
+    <t>ServiceCodeImport</t>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>ALP</t>
+  </si>
+  <si>
+    <t>ServiceCODE1</t>
+  </si>
+  <si>
+    <t>ROCK</t>
+  </si>
+  <si>
+    <t>1PRFSCH002</t>
+  </si>
+  <si>
+    <t>23VDPRFSC1710</t>
+  </si>
+  <si>
+    <t>Servicenameinput</t>
+  </si>
+  <si>
+    <t>VISHNU001</t>
+  </si>
+  <si>
+    <t>Datas_Details</t>
+  </si>
+  <si>
+    <t>PortCodeFilter</t>
+  </si>
+  <si>
+    <t>NLAER</t>
+  </si>
+  <si>
+    <t>CNNBO</t>
+  </si>
+  <si>
+    <t>Portcodesearch</t>
+  </si>
+  <si>
+    <t>CNFAN</t>
+  </si>
+  <si>
+    <t>Portcodesearch1</t>
   </si>
   <si>
     <t>EMS_Module</t>
@@ -572,136 +450,61 @@
     <t>Userid</t>
   </si>
   <si>
+    <t>PassWord</t>
+  </si>
+  <si>
     <t>Abinaya</t>
   </si>
   <si>
-    <t>P@ssw0rd</t>
-  </si>
-  <si>
-    <t>Search_module</t>
-  </si>
-  <si>
-    <t>EMS Contract Registration</t>
-  </si>
-  <si>
-    <t>PassWord</t>
-  </si>
-  <si>
-    <t>ContractField</t>
-  </si>
-  <si>
-    <t>Contract_Type</t>
-  </si>
-  <si>
-    <t>S-SUPPLIERCONTRACT</t>
-  </si>
-  <si>
-    <t>CNC</t>
-  </si>
-  <si>
-    <t>Lessor_Code</t>
-  </si>
-  <si>
-    <t>Lessor_CodeValue</t>
-  </si>
-  <si>
-    <t>THE CHINA NAVIGATION CO. PTE LTD.</t>
-  </si>
-  <si>
-    <t>Lessee_Code</t>
-  </si>
-  <si>
-    <t>SVM</t>
-  </si>
-  <si>
-    <t>SVM SHIPPING</t>
-  </si>
-  <si>
-    <t>Lessee_CodeValue</t>
-  </si>
-  <si>
-    <t>Size_Type</t>
-  </si>
-  <si>
-    <t>SizeandTypeValue</t>
-  </si>
-  <si>
-    <t>20DC</t>
-  </si>
-  <si>
-    <t>N - No banding</t>
-  </si>
-  <si>
-    <t>leasetype_Value</t>
-  </si>
-  <si>
-    <t>Perdiem_Value</t>
-  </si>
-  <si>
-    <t>AA11BB22</t>
-  </si>
-  <si>
-    <t>All Region</t>
-  </si>
-  <si>
-    <t>Locationhier_Value</t>
-  </si>
-  <si>
-    <t>Location_Value</t>
-  </si>
-  <si>
-    <t>SGSIN</t>
-  </si>
-  <si>
-    <t>Straight Line</t>
-  </si>
-  <si>
-    <t>Depreciation_Type</t>
-  </si>
-  <si>
-    <t>contract_register_successfully</t>
-  </si>
-  <si>
-    <t>EMS Contract Registration saved</t>
-  </si>
-  <si>
-    <t>10RF</t>
-  </si>
-  <si>
-    <t>SizeandTypeValue1</t>
-  </si>
-  <si>
-    <t>EMS Contract Registration Updated</t>
-  </si>
-  <si>
-    <t>Contract_Updatedpopup</t>
+    <t>VSS_Module</t>
   </si>
   <si>
     <t>Search_modulename</t>
   </si>
   <si>
-    <t>VSS_Module</t>
+    <t>Servicecode_Name</t>
+  </si>
+  <si>
+    <t>NewService_Creation</t>
+  </si>
+  <si>
+    <t>Savepopup</t>
+  </si>
+  <si>
+    <t>Portvalue</t>
+  </si>
+  <si>
+    <t>Terminalvalue</t>
+  </si>
+  <si>
+    <t>Portvalue1</t>
+  </si>
+  <si>
+    <t>Yellow_color</t>
+  </si>
+  <si>
+    <t>Remark_name</t>
+  </si>
+  <si>
+    <t>Proforma_Date</t>
   </si>
   <si>
     <t>Proforma Service Creation</t>
   </si>
   <si>
-    <t>Servicecode_Name</t>
-  </si>
-  <si>
     <t>ABI</t>
   </si>
   <si>
     <t xml:space="preserve">  Do you want to create a new Proforma Service Creation?</t>
   </si>
   <si>
-    <t>NewService_Creation</t>
-  </si>
-  <si>
     <t>Proforma Service Creation Saved.</t>
   </si>
   <si>
-    <t>Savepopup</t>
+    <t>TEST101</t>
+  </si>
+  <si>
+    <t>AB009</t>
   </si>
   <si>
     <t>VSS_Module2</t>
@@ -710,71 +513,200 @@
     <t>Global_Searchvalue</t>
   </si>
   <si>
+    <t>Status_DropdownValue</t>
+  </si>
+  <si>
+    <t>Bound_Value</t>
+  </si>
+  <si>
+    <t>Change_BoundValue</t>
+  </si>
+  <si>
+    <t>Proforma_Updated</t>
+  </si>
+  <si>
+    <t>Green_color</t>
+  </si>
+  <si>
     <t>Confirm</t>
   </si>
   <si>
-    <t>Status_DropdownValue</t>
-  </si>
-  <si>
     <t>Proforma Bound and Number of Service Bound should be same</t>
   </si>
   <si>
-    <t>Bound_Value</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
-    <t>Change_BoundValue</t>
-  </si>
-  <si>
     <t>Proforma Service Creation Updated.</t>
   </si>
   <si>
-    <t>Proforma_Updated</t>
-  </si>
-  <si>
-    <t>Portvalue</t>
-  </si>
-  <si>
-    <t>AB001</t>
-  </si>
-  <si>
-    <t>TEST101</t>
-  </si>
-  <si>
-    <t>Terminalvalue</t>
-  </si>
-  <si>
-    <t>AB009</t>
-  </si>
-  <si>
-    <t>Portvalue1</t>
-  </si>
-  <si>
-    <t>Yellow_color</t>
-  </si>
-  <si>
-    <t>Remark_name</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Proforma_Date</t>
-  </si>
-  <si>
     <t>#9ACD32</t>
   </si>
   <si>
-    <t>Green_color</t>
+    <t>SOLVERMINDS</t>
+  </si>
+  <si>
+    <t>Module_Search</t>
+  </si>
+  <si>
+    <t>Service_Code</t>
+  </si>
+  <si>
+    <t>Service_Name</t>
+  </si>
+  <si>
+    <t>Start_Date1</t>
+  </si>
+  <si>
+    <t>End_Date1</t>
+  </si>
+  <si>
+    <t>Start_Date2</t>
+  </si>
+  <si>
+    <t>End_Date2</t>
+  </si>
+  <si>
+    <t>Start_Date3</t>
+  </si>
+  <si>
+    <t>End_Date3</t>
+  </si>
+  <si>
+    <t>No_Ships</t>
+  </si>
+  <si>
+    <t>Ashok</t>
+  </si>
+  <si>
+    <t>Service Creation</t>
+  </si>
+  <si>
+    <t>RT54</t>
+  </si>
+  <si>
+    <t>TD22052024</t>
+  </si>
+  <si>
+    <t>05/31/2024 00:00</t>
+  </si>
+  <si>
+    <t>05/25/2024 00:00</t>
+  </si>
+  <si>
+    <t>05/29/2024 00:00</t>
+  </si>
+  <si>
+    <t>05/30/2024 00:00</t>
+  </si>
+  <si>
+    <t>06/05/2024 00:00</t>
+  </si>
+  <si>
+    <t>Portvalue2</t>
+  </si>
+  <si>
+    <t>AB007</t>
+  </si>
+  <si>
+    <t>VSS_Module3</t>
+  </si>
+  <si>
+    <t>ArrdockandArrpilot_error</t>
+  </si>
+  <si>
+    <t>Departuredock_Verify</t>
+  </si>
+  <si>
+    <t>Departpilot_verify</t>
+  </si>
+  <si>
+    <t>Arrival Dock cannot be before of Arrival Pilot.</t>
+  </si>
+  <si>
+    <t>Departure Dock cannot be before the Arrival Dock.</t>
+  </si>
+  <si>
+    <t>Departure Pilot should not be less than the Departure Dock.</t>
+  </si>
+  <si>
+    <t>ESL</t>
+  </si>
+  <si>
+    <t>ModuleName</t>
+  </si>
+  <si>
+    <t>ServiceName</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>NoOfShips</t>
+  </si>
+  <si>
+    <t>ServiceDelete</t>
+  </si>
+  <si>
+    <t>ServiceCodeColor</t>
+  </si>
+  <si>
+    <t>Prabhakaran</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P@ssw0rd</t>
+  </si>
+  <si>
+    <t>A3B9</t>
+  </si>
+  <si>
+    <t>CargoMovers</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1DE3</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
+    <t>ModuleProforma</t>
+  </si>
+  <si>
+    <t>ProformaSearchCode</t>
+  </si>
+  <si>
+    <t>ProformaCodeColor</t>
+  </si>
+  <si>
+    <t>ProformaServiceName</t>
+  </si>
+  <si>
+    <t>RemarkText</t>
+  </si>
+  <si>
+    <t>0001PRFSCH011</t>
+  </si>
+  <si>
+    <t>#ff0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AAA</t>
+  </si>
+  <si>
+    <t>Welcome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -812,10 +744,17 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -846,12 +785,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -879,9 +812,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -899,11 +835,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -965,7 +899,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1017,7 +951,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1211,63 +1145,63 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.7265625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.1796875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.26953125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.54296875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="37.1796875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.81640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.453125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7265625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.1796875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.54296875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.1796875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.26953125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.54296875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.7265625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="16" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.7265625" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.7265625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="18" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.54296875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.453125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.81640625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.85546875" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="19.26953125" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="14.26953125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14.81640625" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18.26953125" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18.28515625" customWidth="1" collapsed="1"/>
     <col min="29" max="29" width="15" customWidth="1" collapsed="1"/>
     <col min="30" max="30" width="17" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17.81640625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="18.453125" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="18.1796875" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="17.26953125" customWidth="1" collapsed="1"/>
-    <col min="35" max="36" width="16.453125" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="14.81640625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="14.7265625" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="35" max="36" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="14.7109375" customWidth="1" collapsed="1"/>
     <col min="39" max="39" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="15.75">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1386,9 +1320,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>39</v>
@@ -1397,27 +1331,35 @@
         <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1445,72 +1387,107 @@
       <c r="AL2" s="6"/>
       <c r="AM2" s="6"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" ht="30">
+      <c r="A3" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="M3" s="6">
+        <v>3</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+    </row>
+    <row r="4" spans="1:39" ht="30">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>159</v>
+        <v>205</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1538,44 +1515,38 @@
       <c r="AL4" s="6"/>
       <c r="AM4" s="6"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:39">
+      <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>209</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>144</v>
+        <v>185</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>128</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="4"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -1603,28 +1574,14 @@
       <c r="AL5" s="6"/>
       <c r="AM5" s="6"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>177</v>
-      </c>
+    <row r="6" spans="1:39">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1658,26 +1615,14 @@
       <c r="AL6" s="6"/>
       <c r="AM6" s="6"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39">
       <c r="A7" s="6"/>
-      <c r="B7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>178</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1711,40 +1656,18 @@
       <c r="AL7" s="6"/>
       <c r="AM7" s="6"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>174</v>
-      </c>
+    <row r="8" spans="1:39">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1774,38 +1697,18 @@
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
     </row>
-    <row r="9" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39">
       <c r="A9" s="6"/>
-      <c r="B9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>176</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -1835,82 +1738,32 @@
       <c r="AL9" s="6"/>
       <c r="AM9" s="6"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>135</v>
-      </c>
+    <row r="10" spans="1:39">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
@@ -1926,80 +1779,32 @@
       <c r="AL10" s="6"/>
       <c r="AM10" s="6"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39">
       <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
@@ -2015,46 +1820,20 @@
       <c r="AL11" s="6"/>
       <c r="AM11" s="6"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>148</v>
-      </c>
+    <row r="12" spans="1:39">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -2082,44 +1861,20 @@
       <c r="AL12" s="6"/>
       <c r="AM12" s="6"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39">
       <c r="A13" s="6"/>
-      <c r="B13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -2147,13 +1902,9 @@
       <c r="AL13" s="6"/>
       <c r="AM13" s="6"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>137</v>
-      </c>
+    <row r="14" spans="1:39">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2192,11 +1943,9 @@
       <c r="AL14" s="6"/>
       <c r="AM14" s="6"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39">
       <c r="A15" s="6"/>
-      <c r="B15" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -2235,13 +1984,9 @@
       <c r="AL15" s="6"/>
       <c r="AM15" s="6"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
+    <row r="16" spans="1:39">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2280,11 +2025,9 @@
       <c r="AL16" s="6"/>
       <c r="AM16" s="6"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39">
       <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
-        <v>147</v>
-      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -2323,51 +2066,39 @@
       <c r="AL17" s="6"/>
       <c r="AM17" s="6"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="C19" s="8"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="F5" r:id="rId2"/>
-    <hyperlink ref="F7" r:id="rId3"/>
-    <hyperlink ref="G7" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId1" display="Test@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" customWidth="1"/>
-    <col min="3" max="3" width="23.08984375" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" customWidth="1"/>
-    <col min="5" max="5" width="35.453125" customWidth="1"/>
-    <col min="6" max="6" width="21.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
-    <col min="8" max="8" width="31.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" customWidth="1"/>
-    <col min="10" max="10" width="32.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="15.75">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2476,54 +2207,89 @@
       <c r="AJ1" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+    </row>
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>190</v>
+        <v>47</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>193</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -2538,51 +2304,83 @@
       <c r="AL2" s="6"/>
       <c r="AM2" s="6"/>
     </row>
-    <row r="3" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" ht="30">
       <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>189</v>
+        <v>46</v>
+      </c>
+      <c r="G3" s="4">
+        <v>28</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>194</v>
+        <v>49</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1998</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="6">
+        <v>3000</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -2597,52 +2395,82 @@
       <c r="AL3" s="6"/>
       <c r="AM3" s="6"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39">
       <c r="A4" s="1" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>201</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>206</v>
+        <v>96</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
@@ -2658,50 +2486,80 @@
       <c r="AL4" s="6"/>
       <c r="AM4" s="6"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" ht="30">
       <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.23400000000000001</v>
+        <v>89</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="W5" s="6">
+        <v>20</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
@@ -2717,40 +2575,26 @@
       <c r="AL5" s="6"/>
       <c r="AM5" s="6"/>
     </row>
-    <row r="6" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39">
       <c r="A6" s="1" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>244</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -2780,38 +2624,24 @@
       <c r="AL6" s="6"/>
       <c r="AM6" s="6"/>
     </row>
-    <row r="7" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" ht="30">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="K7" s="11">
-        <v>45296</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -2841,28 +2671,20 @@
       <c r="AL7" s="6"/>
       <c r="AM7" s="6"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39">
       <c r="A8" s="1" t="s">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>246</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="3"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2896,26 +2718,18 @@
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
     </row>
-    <row r="9" spans="1:39" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" ht="30">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>245</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="6"/>
@@ -2949,40 +2763,1295 @@
       <c r="AL9" s="6"/>
       <c r="AM9" s="6"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="E12" s="10"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D20" s="9"/>
+    <row r="10" spans="1:39">
+      <c r="A10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+    </row>
+    <row r="11" spans="1:39" ht="30">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="6">
+        <v>45296</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+    </row>
+    <row r="13" spans="1:39" ht="30">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+    </row>
+    <row r="15" spans="1:39" ht="30">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C9" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="G14:K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="17" max="17" width="27" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" customWidth="1"/>
+    <col min="20" max="20" width="23.7109375" customWidth="1"/>
+    <col min="21" max="21" width="21.5703125" customWidth="1"/>
+    <col min="25" max="25" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" ht="15.75">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+    </row>
+    <row r="2" spans="1:39" ht="45">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+    </row>
+    <row r="3" spans="1:39" ht="30">
+      <c r="A3" s="6"/>
+      <c r="B3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="4">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1998</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="6">
+        <v>3000</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+    </row>
+    <row r="4" spans="1:39" ht="30">
+      <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+    </row>
+    <row r="5" spans="1:39" ht="30">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="W5" s="6">
+        <v>20</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+    </row>
+    <row r="6" spans="1:39" ht="30">
+      <c r="A6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15350" windowHeight="4550" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Service_Creation" sheetId="1" r:id="rId1"/>
+    <sheet name="Proforma_Creation" sheetId="2" r:id="rId2"/>
+    <sheet name="Long_Term_Creation" sheetId="3" r:id="rId3"/>
+    <sheet name="Coastal_Schedule" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="264">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -768,6 +768,57 @@
   </si>
   <si>
     <t>Green_color</t>
+  </si>
+  <si>
+    <t>Arrival Dock cannot be before of Arrival Pilot.</t>
+  </si>
+  <si>
+    <t>VSS_Module3</t>
+  </si>
+  <si>
+    <t>ArrdockandArrpilot_error</t>
+  </si>
+  <si>
+    <t>Departure Dock cannot be before the Arrival Dock.</t>
+  </si>
+  <si>
+    <t>Departuredock_Verify</t>
+  </si>
+  <si>
+    <t>Departure Pilot should not be less than the Departure Dock.</t>
+  </si>
+  <si>
+    <t>Departpilot_verify</t>
+  </si>
+  <si>
+    <t>AB007</t>
+  </si>
+  <si>
+    <t>Portvalue2</t>
+  </si>
+  <si>
+    <t>Updated_TimeZone</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>AB009TER01</t>
+  </si>
+  <si>
+    <t>Updated_terminal</t>
+  </si>
+  <si>
+    <t>Add_Portcode</t>
+  </si>
+  <si>
+    <t>AEAMU</t>
+  </si>
+  <si>
+    <t>Edit_Portcode</t>
+  </si>
+  <si>
+    <t>ABCDE</t>
   </si>
 </sst>
 </file>
@@ -2348,14 +2399,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
     <col min="3" max="3" width="23.08984375" customWidth="1"/>
     <col min="4" max="4" width="22.453125" customWidth="1"/>
     <col min="5" max="5" width="35.453125" customWidth="1"/>
@@ -2751,7 +2802,9 @@
       <c r="K6" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -2780,7 +2833,7 @@
       <c r="AL6" s="6"/>
       <c r="AM6" s="6"/>
     </row>
-    <row r="7" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>218</v>
@@ -2812,7 +2865,9 @@
       <c r="K7" s="11">
         <v>45296</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -2949,6 +3004,118 @@
       <c r="AL9" s="6"/>
       <c r="AM9" s="6"/>
     </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+    </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="E12" s="10"/>
     </row>
@@ -2980,7 +3147,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Service_creation" sheetId="1" r:id="rId1"/>
-    <sheet name="Performa Creation" sheetId="2" r:id="rId2"/>
-    <sheet name="LongTermCreation" sheetId="3" r:id="rId3"/>
+    <sheet name="Service_Creation" sheetId="1" r:id="rId1"/>
+    <sheet name="Performa_Creation" sheetId="2" r:id="rId2"/>
+    <sheet name="Long_Term_Creation" sheetId="3" r:id="rId3"/>
     <sheet name="Costal_Schedule " sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -1145,7 +1145,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2079,7 +2079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -2211,7 +2211,7 @@
       <c r="AL1" s="5"/>
       <c r="AM1" s="5"/>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" ht="45">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="AL2" s="6"/>
       <c r="AM2" s="6"/>
     </row>
-    <row r="3" spans="1:39" ht="30">
+    <row r="3" spans="1:39">
       <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
         <v>70</v>
@@ -2395,7 +2395,7 @@
       <c r="AL3" s="6"/>
       <c r="AM3" s="6"/>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" ht="45">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -2486,7 +2486,7 @@
       <c r="AL4" s="6"/>
       <c r="AM4" s="6"/>
     </row>
-    <row r="5" spans="1:39" ht="30">
+    <row r="5" spans="1:39">
       <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
         <v>92</v>
@@ -2624,7 +2624,7 @@
       <c r="AL6" s="6"/>
       <c r="AM6" s="6"/>
     </row>
-    <row r="7" spans="1:39" ht="30">
+    <row r="7" spans="1:39">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>135</v>
@@ -2718,7 +2718,7 @@
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
     </row>
-    <row r="9" spans="1:39" ht="30">
+    <row r="9" spans="1:39">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
         <v>143</v>
@@ -2763,7 +2763,7 @@
       <c r="AL9" s="6"/>
       <c r="AM9" s="6"/>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" ht="30">
       <c r="A10" s="1" t="s">
         <v>144</v>
       </c>
@@ -2828,7 +2828,7 @@
       <c r="AL10" s="6"/>
       <c r="AM10" s="6"/>
     </row>
-    <row r="11" spans="1:39" ht="30">
+    <row r="11" spans="1:39" ht="60">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
         <v>155</v>
@@ -2946,7 +2946,7 @@
       <c r="AL12" s="6"/>
       <c r="AM12" s="6"/>
     </row>
-    <row r="13" spans="1:39" ht="30">
+    <row r="13" spans="1:39" ht="60">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
         <v>156</v>
@@ -3048,7 +3048,7 @@
       <c r="AL14" s="6"/>
       <c r="AM14" s="6"/>
     </row>
-    <row r="15" spans="1:39" ht="30">
+    <row r="15" spans="1:39" ht="60">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
         <v>199</v>
@@ -3179,8 +3179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="G14:K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Service_Creation" sheetId="1" r:id="rId1"/>
@@ -1145,7 +1145,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3179,7 +3179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
